--- a/PTE 8炸计划.xlsx
+++ b/PTE 8炸计划.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C742F3-5526-0240-BF58-3D7570C7A49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE45873-058A-2145-867B-3E72D56376B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="27040" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Homework log 1" sheetId="13" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId2"/>
+    <sheet name="Prepare FEB 1" sheetId="13" r:id="rId1"/>
+    <sheet name="Prepare March" sheetId="18" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="WeekStart" localSheetId="0">'Homework log 1'!$G$2</definedName>
+    <definedName name="WeekStart" localSheetId="0">'Prepare FEB 1'!$G$2</definedName>
+    <definedName name="WeekStart" localSheetId="1">'Prepare March'!$G$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -22,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Week of:</t>
   </si>
@@ -138,6 +138,30 @@
   </si>
   <si>
     <t>Y (补充）</t>
+  </si>
+  <si>
+    <t>Y--猩际0-50</t>
+  </si>
+  <si>
+    <t>Y -猩际单词过一遍</t>
+  </si>
+  <si>
+    <t>Y-绿紫</t>
+  </si>
+  <si>
+    <t>Y-萤火虫单词</t>
+  </si>
+  <si>
+    <t>1~40</t>
+  </si>
+  <si>
+    <t>40~81</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y-全</t>
   </si>
 </sst>
 </file>
@@ -634,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,6 +839,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="7" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1060,8 +1088,8 @@
   </sheetPr>
   <dimension ref="B1:V21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1"/>
@@ -1081,10 +1109,10 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:22" ht="72" customHeight="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
@@ -1323,7 +1351,7 @@
       <c r="U6" s="39"/>
       <c r="V6" s="40"/>
     </row>
-    <row r="7" spans="2:22" ht="29">
+    <row r="7" spans="2:22" ht="23">
       <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
@@ -1348,7 +1376,7 @@
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
     </row>
-    <row r="8" spans="2:22" ht="29">
+    <row r="8" spans="2:22" ht="23">
       <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
@@ -1373,7 +1401,7 @@
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
     </row>
-    <row r="9" spans="2:22" ht="29">
+    <row r="9" spans="2:22" ht="23">
       <c r="B9" s="36" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1426,7 @@
       <c r="U9" s="53"/>
       <c r="V9" s="54"/>
     </row>
-    <row r="10" spans="2:22" ht="29">
+    <row r="10" spans="2:22" ht="23">
       <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
@@ -1448,7 +1476,7 @@
       <c r="U11" s="45"/>
       <c r="V11" s="46"/>
     </row>
-    <row r="12" spans="2:22" ht="60">
+    <row r="12" spans="2:22" ht="48">
       <c r="B12" s="35" t="s">
         <v>7</v>
       </c>
@@ -1493,7 +1521,7 @@
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
     </row>
-    <row r="13" spans="2:22" ht="30">
+    <row r="13" spans="2:22" ht="24">
       <c r="B13" s="36" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1548,7 @@
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
     </row>
-    <row r="14" spans="2:22" ht="120">
+    <row r="14" spans="2:22" ht="96">
       <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
@@ -1576,7 +1604,7 @@
       <c r="U15" s="47"/>
       <c r="V15" s="47"/>
     </row>
-    <row r="16" spans="2:22" ht="30">
+    <row r="16" spans="2:22" ht="24">
       <c r="B16" s="35" t="s">
         <v>2</v>
       </c>
@@ -1603,7 +1631,7 @@
       <c r="U16" s="53"/>
       <c r="V16" s="54"/>
     </row>
-    <row r="17" spans="2:22" ht="30">
+    <row r="17" spans="2:22" ht="24">
       <c r="B17" s="36" t="s">
         <v>4</v>
       </c>
@@ -1629,7 +1657,7 @@
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
     </row>
-    <row r="18" spans="2:22" ht="60">
+    <row r="18" spans="2:22" ht="48">
       <c r="B18" s="36" t="s">
         <v>5</v>
       </c>
@@ -1688,7 +1716,7 @@
       <c r="U19" s="45"/>
       <c r="V19" s="46"/>
     </row>
-    <row r="20" spans="2:22" ht="29">
+    <row r="20" spans="2:22" ht="23">
       <c r="B20" s="35" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +1741,7 @@
       <c r="U20" s="31"/>
       <c r="V20" s="32"/>
     </row>
-    <row r="21" spans="2:22" ht="29">
+    <row r="21" spans="2:22" ht="23">
       <c r="B21" s="36" t="s">
         <v>12</v>
       </c>
@@ -1760,6 +1788,693 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE634EC-0247-BD4E-9F22-6A9A09FDA8E1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:V21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="33" customWidth="1"/>
+    <col min="3" max="7" width="17.83203125" style="4" customWidth="1"/>
+    <col min="8" max="22" width="17.83203125" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:22" ht="72" customHeight="1">
+      <c r="B2" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45362</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+    </row>
+    <row r="3" spans="2:22" ht="30" customHeight="1">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="str">
+        <f>TEXT(C5,"ddd")</f>
+        <v>Mon</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <f t="shared" ref="D4:L4" si="0">TEXT(D5,"ddd")</f>
+        <v>Tue</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="F4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="G4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="I4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="J4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="K4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="L4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="M4" s="16" t="str">
+        <f>TEXT(M5,"ddd")</f>
+        <v>Thu</v>
+      </c>
+      <c r="N4" s="17" t="str">
+        <f t="shared" ref="N4:V4" si="1">TEXT(N5,"ddd")</f>
+        <v>Fri</v>
+      </c>
+      <c r="O4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Sat</v>
+      </c>
+      <c r="P4" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Sun</v>
+      </c>
+      <c r="Q4" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Mon</v>
+      </c>
+      <c r="R4" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Tue</v>
+      </c>
+      <c r="S4" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Wed</v>
+      </c>
+      <c r="T4" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>Thu</v>
+      </c>
+      <c r="U4" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>Fri</v>
+      </c>
+      <c r="V4" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>Sat</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="str">
+        <f t="shared" ref="C5:V5" si="2">(TEXT(WeekStart+COLUMN()-3,"mmm dd"))</f>
+        <v>Mar 11</v>
+      </c>
+      <c r="D5" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 12</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 13</v>
+      </c>
+      <c r="F5" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 14</v>
+      </c>
+      <c r="G5" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 15</v>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 16</v>
+      </c>
+      <c r="I5" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 17</v>
+      </c>
+      <c r="J5" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 18</v>
+      </c>
+      <c r="K5" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 19</v>
+      </c>
+      <c r="L5" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 20</v>
+      </c>
+      <c r="M5" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 21</v>
+      </c>
+      <c r="N5" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 22</v>
+      </c>
+      <c r="O5" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 23</v>
+      </c>
+      <c r="P5" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 24</v>
+      </c>
+      <c r="Q5" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 25</v>
+      </c>
+      <c r="R5" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 26</v>
+      </c>
+      <c r="S5" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 27</v>
+      </c>
+      <c r="T5" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 28</v>
+      </c>
+      <c r="U5" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 29</v>
+      </c>
+      <c r="V5" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>Mar 30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="30" customHeight="1">
+      <c r="B6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="40"/>
+    </row>
+    <row r="7" spans="2:22" ht="23">
+      <c r="B7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="54"/>
+    </row>
+    <row r="8" spans="2:22" ht="24">
+      <c r="B8" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="54"/>
+    </row>
+    <row r="9" spans="2:22" ht="23">
+      <c r="B9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="54"/>
+    </row>
+    <row r="10" spans="2:22" ht="24">
+      <c r="B10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="54"/>
+    </row>
+    <row r="11" spans="2:22" ht="30" customHeight="1">
+      <c r="B11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="46"/>
+    </row>
+    <row r="12" spans="2:22" ht="24">
+      <c r="B12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="H12" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="54"/>
+    </row>
+    <row r="13" spans="2:22" ht="72">
+      <c r="B13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="54"/>
+    </row>
+    <row r="14" spans="2:22" ht="24">
+      <c r="B14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="54"/>
+    </row>
+    <row r="15" spans="2:22" ht="30" customHeight="1">
+      <c r="B15" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+    </row>
+    <row r="16" spans="2:22" ht="24">
+      <c r="B16" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="54"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="54"/>
+    </row>
+    <row r="17" spans="2:22" ht="24">
+      <c r="B17" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="54"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="54"/>
+    </row>
+    <row r="18" spans="2:22" ht="23">
+      <c r="B18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="54"/>
+    </row>
+    <row r="19" spans="2:22" ht="30" customHeight="1">
+      <c r="B19" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="46"/>
+    </row>
+    <row r="20" spans="2:22" ht="23">
+      <c r="B20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="32"/>
+    </row>
+    <row r="21" spans="2:22" ht="23">
+      <c r="B21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="32"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Homework Date header, these dates are calculated on basis of your input in cell D4." sqref="C4:V4" xr:uid="{B2860FD9-8B1C-A24F-A249-EA88F431EEC8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Homework Log" prompt="Help your students get more organized with this ready-to-print homework log to track their assignments. _x000a__x000a_" sqref="A1" xr:uid="{B4E34310-A7C7-8F4A-8846-3773F008CD4A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Subject name in this cell." sqref="B11 B19 B6 B15:V15" xr:uid="{4AF30457-BCA7-AB46-87E3-924D8E606879}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the date for the start of the week in this cell." sqref="G2" xr:uid="{01E92247-EEBF-924B-8AC2-346151893697}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter / Update Subject name in this cell." sqref="C19:V19 C11:V11 D6:L6 N6:V6" xr:uid="{F625C700-978A-8744-88FC-6A20EA54028C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date (i.e., Monday Date) in this cell. Dates in Grid below will be auto-calculated." sqref="E1:G1" xr:uid="{E4AA77C0-1EFE-BD46-B201-8455D52040E0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Student Name in this cell." sqref="E2" xr:uid="{F6296144-8197-944E-A5D2-7D1DD2772D34}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date in next cell G5." sqref="C1 F2" xr:uid="{A3882EC7-BA42-EF41-A8EC-0E006723EA22}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="31" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE44A33-10E9-7642-B24E-BC25BF880B2C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/PTE 8炸计划.xlsx
+++ b/PTE 8炸计划.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE45873-058A-2145-867B-3E72D56376B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFF956D-C4DC-6A4E-A2E4-91FE75ADB0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1720" yWindow="500" windowWidth="25600" windowHeight="13480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prepare FEB 1" sheetId="13" r:id="rId1"/>
     <sheet name="Prepare March" sheetId="18" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId3"/>
+    <sheet name="Prepare April" sheetId="19" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="WeekStart" localSheetId="2">'Prepare April'!$G$2</definedName>
     <definedName name="WeekStart" localSheetId="0">'Prepare FEB 1'!$G$2</definedName>
     <definedName name="WeekStart" localSheetId="1">'Prepare March'!$G$2</definedName>
   </definedNames>
@@ -24,8 +26,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
   <si>
     <t>Week of:</t>
   </si>
@@ -162,6 +168,42 @@
   </si>
   <si>
     <t>Y-全</t>
+  </si>
+  <si>
+    <t>Y（橙-近期可以不再看，紫 #130,红#70#20）</t>
+  </si>
+  <si>
+    <t>Y（红#70#20）</t>
+  </si>
+  <si>
+    <t>Y（红）</t>
+  </si>
+  <si>
+    <t>Y(红）</t>
+  </si>
+  <si>
+    <t>Y(橙 紫)</t>
+  </si>
+  <si>
+    <t>50-111</t>
+  </si>
+  <si>
+    <t>Y（红-完成一遍）</t>
+  </si>
+  <si>
+    <t>Y(未收藏 紫)</t>
+  </si>
+  <si>
+    <t>Y(未收藏）</t>
+  </si>
+  <si>
+    <t>Y(未收藏--完成一遍并分类）</t>
+  </si>
+  <si>
+    <t>1~100</t>
+  </si>
+  <si>
+    <t>Y-紫</t>
   </si>
 </sst>
 </file>
@@ -404,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -654,11 +696,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -844,6 +901,10 @@
     </xf>
     <xf numFmtId="16" fontId="19" fillId="7" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1088,7 +1149,7 @@
   </sheetPr>
   <dimension ref="B1:V21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -1109,10 +1170,10 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:22" ht="72" customHeight="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
@@ -1164,83 +1225,83 @@
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="str">
         <f>TEXT(C5,"ddd")</f>
-        <v>Fri</v>
+        <v>Sun</v>
       </c>
       <c r="D4" s="17" t="str">
         <f t="shared" ref="D4:L4" si="0">TEXT(D5,"ddd")</f>
+        <v>Mon</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="F4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="G4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="E4" s="18" t="str">
+      <c r="I4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="J4" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="G4" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Tue</v>
-      </c>
-      <c r="H4" s="16" t="str">
+      <c r="K4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="I4" s="17" t="str">
+      <c r="L4" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Thu</v>
-      </c>
-      <c r="J4" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>Fri</v>
-      </c>
-      <c r="K4" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Sat</v>
-      </c>
-      <c r="L4" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Sun</v>
       </c>
       <c r="M4" s="16" t="str">
         <f>TEXT(M5,"ddd")</f>
-        <v>Mon</v>
+        <v>Fri</v>
       </c>
       <c r="N4" s="17" t="str">
         <f t="shared" ref="N4" si="1">TEXT(N5,"ddd")</f>
-        <v>Tue</v>
+        <v>Sat</v>
       </c>
       <c r="O4" s="18" t="str">
         <f t="shared" ref="O4" si="2">TEXT(O5,"ddd")</f>
-        <v>Wed</v>
+        <v>Mon</v>
       </c>
       <c r="P4" s="19" t="str">
         <f t="shared" ref="P4" si="3">TEXT(P5,"ddd")</f>
-        <v>Thu</v>
+        <v>Tue</v>
       </c>
       <c r="Q4" s="20" t="str">
         <f t="shared" ref="Q4" si="4">TEXT(Q5,"ddd")</f>
-        <v>Fri</v>
+        <v>Wed</v>
       </c>
       <c r="R4" s="16" t="str">
         <f t="shared" ref="R4" si="5">TEXT(R5,"ddd")</f>
-        <v>Sat</v>
+        <v>Thu</v>
       </c>
       <c r="S4" s="17" t="str">
         <f t="shared" ref="S4" si="6">TEXT(S5,"ddd")</f>
-        <v>Sun</v>
+        <v>Sat</v>
       </c>
       <c r="T4" s="18" t="str">
         <f t="shared" ref="T4" si="7">TEXT(T5,"ddd")</f>
-        <v>Mon</v>
+        <v>Sun</v>
       </c>
       <c r="U4" s="19" t="str">
         <f t="shared" ref="U4" si="8">TEXT(U5,"ddd")</f>
-        <v>Tue</v>
+        <v>Mon</v>
       </c>
       <c r="V4" s="20" t="str">
         <f t="shared" ref="V4" si="9">TEXT(V5,"ddd")</f>
-        <v>Wed</v>
+        <v>Tue</v>
       </c>
     </row>
     <row r="5" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1">
@@ -1792,10 +1853,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:V21"/>
+  <dimension ref="B1:W21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1"/>
@@ -1803,22 +1867,22 @@
     <col min="1" max="1" width="4" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" style="33" customWidth="1"/>
     <col min="3" max="7" width="17.83203125" style="4" customWidth="1"/>
-    <col min="8" max="22" width="17.83203125" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="9.1640625" style="3"/>
+    <col min="8" max="23" width="17.83203125" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" s="2" customFormat="1" ht="24" customHeight="1">
+    <row r="1" spans="2:23" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:22" ht="72" customHeight="1">
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="2:23" ht="72" customHeight="1">
+      <c r="B2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
@@ -1827,8 +1891,14 @@
       <c r="G2" s="7">
         <v>45362</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="8" t="str">
+        <f>TEXT(WeekStart,"ddd")</f>
+        <v>Mon</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>TEXT(C5,"yyyy mmm dd")</f>
+        <v>2024 Mar 11</v>
+      </c>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -1842,8 +1912,9 @@
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
-    </row>
-    <row r="3" spans="2:22" ht="30" customHeight="1">
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="2:23" ht="30" customHeight="1">
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -1865,15 +1936,16 @@
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-    </row>
-    <row r="4" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" spans="2:23" s="27" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="str">
         <f>TEXT(C5,"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D4" s="17" t="str">
-        <f t="shared" ref="D4:L4" si="0">TEXT(D5,"ddd")</f>
+        <f t="shared" ref="D4:W4" si="0">TEXT(D5,"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="E4" s="18" t="str">
@@ -1896,143 +1968,151 @@
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="J4" s="18" t="str">
+      <c r="J4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="K4" s="19" t="str">
+      <c r="K4" s="17" t="str">
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-      <c r="L4" s="20" t="str">
+      <c r="L4" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="M4" s="16" t="str">
-        <f>TEXT(M5,"ddd")</f>
+      <c r="M4" s="19" t="str">
+        <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="N4" s="17" t="str">
-        <f t="shared" ref="N4:V4" si="1">TEXT(N5,"ddd")</f>
+      <c r="N4" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="O4" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="O4" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="P4" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="P4" s="17" t="str">
+        <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-      <c r="Q4" s="20" t="str">
-        <f t="shared" si="1"/>
+      <c r="Q4" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="R4" s="16" t="str">
-        <f t="shared" si="1"/>
+      <c r="R4" s="17" t="str">
+        <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-      <c r="S4" s="17" t="str">
-        <f t="shared" si="1"/>
+      <c r="S4" s="18" t="str">
+        <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="T4" s="18" t="str">
-        <f t="shared" si="1"/>
+      <c r="T4" s="19" t="str">
+        <f t="shared" si="0"/>
         <v>Thu</v>
       </c>
-      <c r="U4" s="19" t="str">
-        <f t="shared" si="1"/>
+      <c r="U4" s="20" t="str">
+        <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="V4" s="20" t="str">
-        <f t="shared" si="1"/>
+      <c r="V4" s="16" t="str">
+        <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-    </row>
-    <row r="5" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="W4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" s="27" customFormat="1" ht="30" customHeight="1">
       <c r="B5" s="21"/>
       <c r="C5" s="22" t="str">
-        <f t="shared" ref="C5:V5" si="2">(TEXT(WeekStart+COLUMN()-3,"mmm dd"))</f>
-        <v>Mar 11</v>
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>11 Mar</v>
       </c>
       <c r="D5" s="23" t="str">
+        <f t="shared" ref="D5:I5" si="1">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <v>12 Mar</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>13 Mar</v>
+      </c>
+      <c r="F5" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>14 Mar</v>
+      </c>
+      <c r="G5" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>15 Mar</v>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>16 Mar</v>
+      </c>
+      <c r="I5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>17 Mar</v>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>18 Mar</v>
+      </c>
+      <c r="K5" s="23" t="str">
+        <f t="shared" ref="K5:P5" si="2">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <v>19 Mar</v>
+      </c>
+      <c r="L5" s="24" t="str">
         <f t="shared" si="2"/>
-        <v>Mar 12</v>
-      </c>
-      <c r="E5" s="24" t="str">
+        <v>20 Mar</v>
+      </c>
+      <c r="M5" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>Mar 13</v>
-      </c>
-      <c r="F5" s="25" t="str">
+        <v>21 Mar</v>
+      </c>
+      <c r="N5" s="26" t="str">
         <f t="shared" si="2"/>
-        <v>Mar 14</v>
-      </c>
-      <c r="G5" s="26" t="str">
+        <v>22 Mar</v>
+      </c>
+      <c r="O5" s="22" t="str">
         <f t="shared" si="2"/>
-        <v>Mar 15</v>
-      </c>
-      <c r="H5" s="22" t="str">
+        <v>23 Mar</v>
+      </c>
+      <c r="P5" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>Mar 16</v>
-      </c>
-      <c r="I5" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 17</v>
-      </c>
-      <c r="J5" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 18</v>
-      </c>
-      <c r="K5" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 19</v>
-      </c>
-      <c r="L5" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 20</v>
-      </c>
-      <c r="M5" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 21</v>
-      </c>
-      <c r="N5" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 22</v>
-      </c>
-      <c r="O5" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 23</v>
-      </c>
-      <c r="P5" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 24</v>
-      </c>
-      <c r="Q5" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 25</v>
-      </c>
-      <c r="R5" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 26</v>
-      </c>
-      <c r="S5" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 27</v>
-      </c>
-      <c r="T5" s="24" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 28</v>
-      </c>
-      <c r="U5" s="25" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 29</v>
-      </c>
-      <c r="V5" s="26" t="str">
-        <f t="shared" si="2"/>
-        <v>Mar 30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="30" customHeight="1">
+        <v>24 Mar</v>
+      </c>
+      <c r="Q5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>25 Mar</v>
+      </c>
+      <c r="R5" s="23" t="str">
+        <f t="shared" ref="R5:W5" si="3">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <v>26 Mar</v>
+      </c>
+      <c r="S5" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>27 Mar</v>
+      </c>
+      <c r="T5" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>28 Mar</v>
+      </c>
+      <c r="U5" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>29 Mar</v>
+      </c>
+      <c r="V5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>30 Mar</v>
+      </c>
+      <c r="W5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>31 Mar</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="30" customHeight="1">
       <c r="B6" s="34" t="s">
         <v>13</v>
       </c>
@@ -2056,8 +2136,9 @@
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
       <c r="V6" s="40"/>
-    </row>
-    <row r="7" spans="2:22" ht="23">
+      <c r="W6" s="40"/>
+    </row>
+    <row r="7" spans="2:23" ht="23">
       <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
@@ -2081,8 +2162,9 @@
       <c r="T7" s="52"/>
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
-    </row>
-    <row r="8" spans="2:22" ht="24">
+      <c r="W7" s="54"/>
+    </row>
+    <row r="8" spans="2:23" ht="24">
       <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
@@ -2103,13 +2185,16 @@
       <c r="O8" s="52"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="54"/>
-      <c r="R8" s="50"/>
+      <c r="R8" s="50" t="s">
+        <v>48</v>
+      </c>
       <c r="S8" s="51"/>
       <c r="T8" s="52"/>
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
-    </row>
-    <row r="9" spans="2:22" ht="23">
+      <c r="W8" s="54"/>
+    </row>
+    <row r="9" spans="2:23" ht="23">
       <c r="B9" s="36" t="s">
         <v>16</v>
       </c>
@@ -2133,8 +2218,9 @@
       <c r="T9" s="52"/>
       <c r="U9" s="53"/>
       <c r="V9" s="54"/>
-    </row>
-    <row r="10" spans="2:22" ht="24">
+      <c r="W9" s="54"/>
+    </row>
+    <row r="10" spans="2:23" ht="24">
       <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
@@ -2149,10 +2235,18 @@
       <c r="I10" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="50"/>
+      <c r="J10" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>23</v>
+      </c>
       <c r="N10" s="51"/>
       <c r="O10" s="52"/>
       <c r="P10" s="53"/>
@@ -2162,8 +2256,9 @@
       <c r="T10" s="52"/>
       <c r="U10" s="53"/>
       <c r="V10" s="54"/>
-    </row>
-    <row r="11" spans="2:22" ht="30" customHeight="1">
+      <c r="W10" s="54"/>
+    </row>
+    <row r="11" spans="2:23" ht="30" customHeight="1">
       <c r="B11" s="34" t="s">
         <v>6</v>
       </c>
@@ -2187,8 +2282,9 @@
       <c r="T11" s="44"/>
       <c r="U11" s="45"/>
       <c r="V11" s="46"/>
-    </row>
-    <row r="12" spans="2:22" ht="24">
+      <c r="W11" s="46"/>
+    </row>
+    <row r="12" spans="2:23" ht="24">
       <c r="B12" s="35" t="s">
         <v>7</v>
       </c>
@@ -2215,8 +2311,9 @@
       <c r="T12" s="52"/>
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
-    </row>
-    <row r="13" spans="2:22" ht="72">
+      <c r="W12" s="54"/>
+    </row>
+    <row r="13" spans="2:23" ht="72">
       <c r="B13" s="36" t="s">
         <v>8</v>
       </c>
@@ -2244,8 +2341,9 @@
       <c r="T13" s="52"/>
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
-    </row>
-    <row r="14" spans="2:22" ht="24">
+      <c r="W13" s="54"/>
+    </row>
+    <row r="14" spans="2:23" ht="24">
       <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
@@ -2271,8 +2369,9 @@
       <c r="T14" s="52"/>
       <c r="U14" s="53"/>
       <c r="V14" s="54"/>
-    </row>
-    <row r="15" spans="2:22" ht="30" customHeight="1">
+      <c r="W14" s="54"/>
+    </row>
+    <row r="15" spans="2:23" ht="30" customHeight="1">
       <c r="B15" s="34" t="s">
         <v>1</v>
       </c>
@@ -2296,8 +2395,9 @@
       <c r="T15" s="47"/>
       <c r="U15" s="47"/>
       <c r="V15" s="47"/>
-    </row>
-    <row r="16" spans="2:22" ht="24">
+      <c r="W15" s="47"/>
+    </row>
+    <row r="16" spans="2:23" ht="48">
       <c r="B16" s="35" t="s">
         <v>2</v>
       </c>
@@ -2319,14 +2419,25 @@
       <c r="N16" s="51"/>
       <c r="O16" s="52"/>
       <c r="P16" s="53"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="52"/>
-      <c r="U16" s="53"/>
+      <c r="Q16" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="53" t="s">
+        <v>49</v>
+      </c>
       <c r="V16" s="54"/>
-    </row>
-    <row r="17" spans="2:22" ht="24">
+      <c r="W16" s="54"/>
+    </row>
+    <row r="17" spans="2:23" ht="48">
       <c r="B17" s="36" t="s">
         <v>4</v>
       </c>
@@ -2351,10 +2462,13 @@
       <c r="R17" s="50"/>
       <c r="S17" s="51"/>
       <c r="T17" s="52"/>
-      <c r="U17" s="53"/>
+      <c r="U17" s="53" t="s">
+        <v>50</v>
+      </c>
       <c r="V17" s="54"/>
-    </row>
-    <row r="18" spans="2:22" ht="23">
+      <c r="W17" s="54"/>
+    </row>
+    <row r="18" spans="2:23" ht="120">
       <c r="B18" s="36" t="s">
         <v>5</v>
       </c>
@@ -2365,20 +2479,29 @@
       <c r="G18" s="54"/>
       <c r="H18" s="50"/>
       <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="57"/>
       <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="54"/>
+      <c r="N18" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="54" t="s">
+        <v>46</v>
+      </c>
       <c r="R18" s="50"/>
       <c r="S18" s="51"/>
       <c r="T18" s="52"/>
       <c r="U18" s="53"/>
       <c r="V18" s="54"/>
-    </row>
-    <row r="19" spans="2:22" ht="30" customHeight="1">
+      <c r="W18" s="54"/>
+    </row>
+    <row r="19" spans="2:23" ht="30" customHeight="1">
       <c r="B19" s="34" t="s">
         <v>10</v>
       </c>
@@ -2402,8 +2525,9 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
       <c r="V19" s="46"/>
-    </row>
-    <row r="20" spans="2:22" ht="23">
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="2:23" ht="23">
       <c r="B20" s="35" t="s">
         <v>11</v>
       </c>
@@ -2427,8 +2551,9 @@
       <c r="T20" s="30"/>
       <c r="U20" s="31"/>
       <c r="V20" s="32"/>
-    </row>
-    <row r="21" spans="2:22" ht="23">
+      <c r="W20" s="32"/>
+    </row>
+    <row r="21" spans="2:23" ht="23">
       <c r="B21" s="36" t="s">
         <v>12</v>
       </c>
@@ -2452,6 +2577,7 @@
       <c r="T21" s="30"/>
       <c r="U21" s="31"/>
       <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>
@@ -2459,11 +2585,11 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Homework Date header, these dates are calculated on basis of your input in cell D4." sqref="C4:V4" xr:uid="{B2860FD9-8B1C-A24F-A249-EA88F431EEC8}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Homework Date header, these dates are calculated on basis of your input in cell D4." sqref="C4:W4" xr:uid="{B2860FD9-8B1C-A24F-A249-EA88F431EEC8}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Homework Log" prompt="Help your students get more organized with this ready-to-print homework log to track their assignments. _x000a__x000a_" sqref="A1" xr:uid="{B4E34310-A7C7-8F4A-8846-3773F008CD4A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Subject name in this cell." sqref="B11 B19 B6 B15:V15" xr:uid="{4AF30457-BCA7-AB46-87E3-924D8E606879}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Subject name in this cell." sqref="B11 B19 B6 B15:W15" xr:uid="{4AF30457-BCA7-AB46-87E3-924D8E606879}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the date for the start of the week in this cell." sqref="G2" xr:uid="{01E92247-EEBF-924B-8AC2-346151893697}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter / Update Subject name in this cell." sqref="C19:V19 C11:V11 D6:L6 N6:V6" xr:uid="{F625C700-978A-8744-88FC-6A20EA54028C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter / Update Subject name in this cell." sqref="C11:W11 N6:W6 D6:L6 C19:W19" xr:uid="{F625C700-978A-8744-88FC-6A20EA54028C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date (i.e., Monday Date) in this cell. Dates in Grid below will be auto-calculated." sqref="E1:G1" xr:uid="{E4AA77C0-1EFE-BD46-B201-8455D52040E0}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Student Name in this cell." sqref="E2" xr:uid="{F6296144-8197-944E-A5D2-7D1DD2772D34}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date in next cell G5." sqref="C1 F2" xr:uid="{A3882EC7-BA42-EF41-A8EC-0E006723EA22}"/>
@@ -2475,6 +2601,712 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF18373D-7E44-F549-B596-1D67D6B48E88}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:W21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="33" customWidth="1"/>
+    <col min="3" max="7" width="17.83203125" style="4" customWidth="1"/>
+    <col min="8" max="23" width="17.83203125" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="72" customHeight="1">
+      <c r="B2" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45383</v>
+      </c>
+      <c r="H2" s="8" t="str">
+        <f>TEXT(WeekStart,"ddd")</f>
+        <v>Mon</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>TEXT(C5,"yyyy mmm dd")</f>
+        <v>2024 Apr 01</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="2:23" ht="30" customHeight="1">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" spans="2:23" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="str">
+        <f>TEXT(C5,"ddd")</f>
+        <v>Mon</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <f t="shared" ref="D4:W4" si="0">TEXT(D5,"ddd")</f>
+        <v>Tue</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="F4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="G4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="I4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="J4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="K4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="L4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="M4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="N4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="O4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="P4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="Q4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="R4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="S4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="T4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="U4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="V4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="W4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>01 Apr</v>
+      </c>
+      <c r="D5" s="23" t="str">
+        <f t="shared" ref="D5:I5" si="1">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <v>02 Apr</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>03 Apr</v>
+      </c>
+      <c r="F5" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>04 Apr</v>
+      </c>
+      <c r="G5" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>05 Apr</v>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>06 Apr</v>
+      </c>
+      <c r="I5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>07 Apr</v>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>08 Apr</v>
+      </c>
+      <c r="K5" s="23" t="str">
+        <f t="shared" ref="K5:P5" si="2">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <v>09 Apr</v>
+      </c>
+      <c r="L5" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>10 Apr</v>
+      </c>
+      <c r="M5" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>11 Apr</v>
+      </c>
+      <c r="N5" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>12 Apr</v>
+      </c>
+      <c r="O5" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>13 Apr</v>
+      </c>
+      <c r="P5" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>14 Apr</v>
+      </c>
+      <c r="Q5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>15 Apr</v>
+      </c>
+      <c r="R5" s="23" t="str">
+        <f t="shared" ref="R5:W5" si="3">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <v>16 Apr</v>
+      </c>
+      <c r="S5" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>17 Apr</v>
+      </c>
+      <c r="T5" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>18 Apr</v>
+      </c>
+      <c r="U5" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>19 Apr</v>
+      </c>
+      <c r="V5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>20 Apr</v>
+      </c>
+      <c r="W5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>21 Apr</v>
+      </c>
+    </row>
+    <row r="6" spans="2:23" ht="30" customHeight="1">
+      <c r="B6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+    </row>
+    <row r="7" spans="2:23" ht="23">
+      <c r="B7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+    </row>
+    <row r="8" spans="2:23" ht="24">
+      <c r="B8" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+    </row>
+    <row r="9" spans="2:23" ht="23">
+      <c r="B9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+    </row>
+    <row r="10" spans="2:23" ht="24">
+      <c r="B10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+    </row>
+    <row r="11" spans="2:23" ht="30" customHeight="1">
+      <c r="B11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+    </row>
+    <row r="12" spans="2:23" ht="23">
+      <c r="B12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+    </row>
+    <row r="13" spans="2:23" ht="23">
+      <c r="B13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+    </row>
+    <row r="14" spans="2:23" ht="23">
+      <c r="B14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+    </row>
+    <row r="15" spans="2:23" ht="30" customHeight="1">
+      <c r="B15" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+    </row>
+    <row r="16" spans="2:23" ht="23">
+      <c r="B16" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+    </row>
+    <row r="17" spans="2:23" ht="72">
+      <c r="B17" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+    </row>
+    <row r="18" spans="2:23" ht="23">
+      <c r="B18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+    </row>
+    <row r="19" spans="2:23" ht="30" customHeight="1">
+      <c r="B19" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+    </row>
+    <row r="20" spans="2:23" ht="23">
+      <c r="B20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+    </row>
+    <row r="21" spans="2:23" ht="23">
+      <c r="B21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date in next cell G5." sqref="C1 F2" xr:uid="{079EE756-7CFB-184B-864B-D1A5256AE2F1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Student Name in this cell." sqref="E2" xr:uid="{9CBE3C17-6CB8-1148-8EE1-C88910709669}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date (i.e., Monday Date) in this cell. Dates in Grid below will be auto-calculated." sqref="E1:G1" xr:uid="{D3497D02-33AB-0246-BE0E-C30BF912AE87}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter / Update Subject name in this cell." sqref="C11:W11 N6:W6 D6:L6 C19:W19" xr:uid="{9879859C-CAEA-CC48-8AAB-892B2093C47B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the date for the start of the week in this cell." sqref="G2" xr:uid="{D0455A30-A624-8C42-B1CF-62FCF5E2BEF5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Subject name in this cell." sqref="B11 B19 B6 B15:W15" xr:uid="{A02C6994-0A87-7349-8F31-B29D72DD46DB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Homework Log" prompt="Help your students get more organized with this ready-to-print homework log to track their assignments. _x000a__x000a_" sqref="A1" xr:uid="{CCB9C9A5-6426-B141-9BB8-E87C34F60FE5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Homework Date header, these dates are calculated on basis of your input in cell D4." sqref="C4:W4" xr:uid="{D46DC5BF-02F4-364E-8C76-37055CB6BA0F}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="31" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE44A33-10E9-7642-B24E-BC25BF880B2C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>

--- a/PTE 8炸计划.xlsx
+++ b/PTE 8炸计划.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFF956D-C4DC-6A4E-A2E4-91FE75ADB0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA48CAF-EFA1-974D-96AB-F3BC87E9756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="500" windowWidth="25600" windowHeight="13480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
   <si>
     <t>Week of:</t>
   </si>
@@ -204,13 +204,22 @@
   </si>
   <si>
     <t>Y-紫</t>
+  </si>
+  <si>
+    <t>Y-(紫,红)</t>
+  </si>
+  <si>
+    <t>101~200</t>
+  </si>
+  <si>
+    <t>单词词汇整理</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +373,22 @@
       <sz val="18"/>
       <color theme="1" tint="0.14999847407452621"/>
       <name val="Baloo Bhaijaan Regular"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -715,7 +740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -909,6 +934,14 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2605,13 +2638,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W21"/>
+  <dimension ref="B1:W22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1"/>
@@ -2925,7 +2958,9 @@
         <v>53</v>
       </c>
       <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="F8" s="53" t="s">
+        <v>56</v>
+      </c>
       <c r="G8" s="54"/>
       <c r="H8" s="50"/>
       <c r="I8" s="51"/>
@@ -2979,7 +3014,9 @@
         <v>54</v>
       </c>
       <c r="E10" s="52"/>
-      <c r="F10" s="53"/>
+      <c r="F10" s="53" t="s">
+        <v>55</v>
+      </c>
       <c r="G10" s="54"/>
       <c r="H10" s="50"/>
       <c r="I10" s="51"/>
@@ -3284,6 +3321,14 @@
       <c r="U21" s="31"/>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
+    </row>
+    <row r="22" spans="2:23" ht="43" customHeight="1">
+      <c r="B22" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="60" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1"/>

--- a/PTE 8炸计划.xlsx
+++ b/PTE 8炸计划.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA48CAF-EFA1-974D-96AB-F3BC87E9756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08B6E44-D4E7-A64D-BACF-AE77375C2754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="500" windowWidth="25600" windowHeight="13480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prepare FEB 1" sheetId="13" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
   <si>
     <t>Week of:</t>
   </si>
@@ -213,13 +213,43 @@
   </si>
   <si>
     <t>单词词汇整理</t>
+  </si>
+  <si>
+    <t>Y(萤火虫1~70）</t>
+  </si>
+  <si>
+    <t>Y(萤火虫全部）</t>
+  </si>
+  <si>
+    <t>Y(1-82)</t>
+  </si>
+  <si>
+    <t>201-300</t>
+  </si>
+  <si>
+    <t>201-end</t>
+  </si>
+  <si>
+    <t>Y(全题1-10）</t>
+  </si>
+  <si>
+    <t>Y(萤火虫-全）</t>
+  </si>
+  <si>
+    <t>Y(萤火虫+猩际）</t>
+  </si>
+  <si>
+    <t>Y(1-60)</t>
+  </si>
+  <si>
+    <t>Y(萤火虫）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +416,12 @@
       <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -740,7 +776,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -932,9 +968,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -942,6 +975,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="19" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1203,10 +1243,10 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:22" ht="72" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
@@ -1912,10 +1952,10 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="2:23" ht="72" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
@@ -2638,13 +2678,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W22"/>
+  <dimension ref="B1:AF22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1"/>
@@ -2653,21 +2693,22 @@
     <col min="2" max="2" width="33.33203125" style="33" customWidth="1"/>
     <col min="3" max="7" width="17.83203125" style="4" customWidth="1"/>
     <col min="8" max="23" width="17.83203125" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="9.1640625" style="3"/>
+    <col min="24" max="33" width="16.1640625" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" s="2" customFormat="1" ht="24" customHeight="1">
+    <row r="1" spans="2:32" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="2:23" ht="72" customHeight="1">
-      <c r="B2" s="58" t="s">
+    <row r="2" spans="2:32" ht="72" customHeight="1">
+      <c r="B2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="58"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="5" t="s">
@@ -2699,7 +2740,7 @@
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
     </row>
-    <row r="3" spans="2:23" ht="30" customHeight="1">
+    <row r="3" spans="2:32" ht="30" customHeight="1">
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -2723,14 +2764,14 @@
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="2:23" s="27" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="2:32" s="27" customFormat="1" ht="30" customHeight="1">
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="str">
         <f>TEXT(C5,"ddd")</f>
         <v>Mon</v>
       </c>
       <c r="D4" s="17" t="str">
-        <f t="shared" ref="D4:W4" si="0">TEXT(D5,"ddd")</f>
+        <f t="shared" ref="D4:AF4" si="0">TEXT(D5,"ddd")</f>
         <v>Tue</v>
       </c>
       <c r="E4" s="18" t="str">
@@ -2809,8 +2850,44 @@
         <f t="shared" si="0"/>
         <v>Sun</v>
       </c>
-    </row>
-    <row r="5" spans="2:23" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="X4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="Y4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="Z4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="AA4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="AB4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="AC4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="AD4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="AE4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="AF4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" s="27" customFormat="1" ht="30" customHeight="1">
       <c r="B5" s="21"/>
       <c r="C5" s="22" t="str">
         <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
@@ -2873,7 +2950,7 @@
         <v>15 Apr</v>
       </c>
       <c r="R5" s="23" t="str">
-        <f t="shared" ref="R5:W5" si="3">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <f t="shared" ref="R5:AF5" si="3">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
         <v>16 Apr</v>
       </c>
       <c r="S5" s="24" t="str">
@@ -2896,8 +2973,44 @@
         <f t="shared" si="3"/>
         <v>21 Apr</v>
       </c>
-    </row>
-    <row r="6" spans="2:23" ht="30" customHeight="1">
+      <c r="X5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>22 Apr</v>
+      </c>
+      <c r="Y5" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>23 Apr</v>
+      </c>
+      <c r="Z5" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>24 Apr</v>
+      </c>
+      <c r="AA5" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>25 Apr</v>
+      </c>
+      <c r="AB5" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>26 Apr</v>
+      </c>
+      <c r="AC5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>27 Apr</v>
+      </c>
+      <c r="AD5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>28 Apr</v>
+      </c>
+      <c r="AE5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>29 Apr</v>
+      </c>
+      <c r="AF5" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>30 Apr</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" ht="30" customHeight="1">
       <c r="B6" s="34" t="s">
         <v>13</v>
       </c>
@@ -2922,8 +3035,17 @@
       <c r="U6" s="39"/>
       <c r="V6" s="40"/>
       <c r="W6" s="40"/>
-    </row>
-    <row r="7" spans="2:23" ht="23">
+      <c r="X6" s="40"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="41"/>
+    </row>
+    <row r="7" spans="2:32" ht="23">
       <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
@@ -2948,8 +3070,17 @@
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
       <c r="W7" s="54"/>
-    </row>
-    <row r="8" spans="2:23" ht="24">
+      <c r="X7" s="54"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="50"/>
+    </row>
+    <row r="8" spans="2:32" ht="24">
       <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
@@ -2967,8 +3098,12 @@
       <c r="J8" s="52"/>
       <c r="K8" s="53"/>
       <c r="L8" s="54"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="51"/>
+      <c r="M8" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>62</v>
+      </c>
       <c r="O8" s="52"/>
       <c r="P8" s="53"/>
       <c r="Q8" s="54"/>
@@ -2978,8 +3113,17 @@
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
       <c r="W8" s="54"/>
-    </row>
-    <row r="9" spans="2:23" ht="23">
+      <c r="X8" s="54"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="50"/>
+    </row>
+    <row r="9" spans="2:32" ht="48">
       <c r="B9" s="36" t="s">
         <v>16</v>
       </c>
@@ -2994,7 +3138,9 @@
       <c r="K9" s="53"/>
       <c r="L9" s="54"/>
       <c r="M9" s="50"/>
-      <c r="N9" s="51"/>
+      <c r="N9" s="60" t="s">
+        <v>63</v>
+      </c>
       <c r="O9" s="52"/>
       <c r="P9" s="53"/>
       <c r="Q9" s="54"/>
@@ -3004,8 +3150,17 @@
       <c r="U9" s="53"/>
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
-    </row>
-    <row r="10" spans="2:23" ht="24">
+      <c r="X9" s="54"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="50"/>
+    </row>
+    <row r="10" spans="2:32" ht="24">
       <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
@@ -3034,8 +3189,17 @@
       <c r="U10" s="53"/>
       <c r="V10" s="54"/>
       <c r="W10" s="54"/>
-    </row>
-    <row r="11" spans="2:23" ht="30" customHeight="1">
+      <c r="X10" s="54"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="50"/>
+    </row>
+    <row r="11" spans="2:32" ht="30" customHeight="1">
       <c r="B11" s="34" t="s">
         <v>6</v>
       </c>
@@ -3060,8 +3224,17 @@
       <c r="U11" s="45"/>
       <c r="V11" s="46"/>
       <c r="W11" s="46"/>
-    </row>
-    <row r="12" spans="2:23" ht="23">
+      <c r="X11" s="46"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="42"/>
+    </row>
+    <row r="12" spans="2:32" ht="24">
       <c r="B12" s="35" t="s">
         <v>7</v>
       </c>
@@ -3071,22 +3244,43 @@
       <c r="F12" s="53"/>
       <c r="H12" s="56"/>
       <c r="I12" s="51"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
+      <c r="J12" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="54" t="s">
+        <v>60</v>
+      </c>
       <c r="M12" s="50"/>
-      <c r="N12" s="51"/>
+      <c r="N12" s="51" t="s">
+        <v>60</v>
+      </c>
       <c r="O12" s="52"/>
       <c r="P12" s="53"/>
       <c r="Q12" s="54"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="51"/>
+      <c r="R12" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="S12" s="51" t="s">
+        <v>67</v>
+      </c>
       <c r="T12" s="52"/>
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
       <c r="W12" s="54"/>
-    </row>
-    <row r="13" spans="2:23" ht="23">
+      <c r="X12" s="54"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="50"/>
+    </row>
+    <row r="13" spans="2:32" ht="23">
       <c r="B13" s="36" t="s">
         <v>8</v>
       </c>
@@ -3111,8 +3305,17 @@
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
       <c r="W13" s="54"/>
-    </row>
-    <row r="14" spans="2:23" ht="23">
+      <c r="X13" s="54"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="50"/>
+    </row>
+    <row r="14" spans="2:32" ht="48">
       <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
@@ -3121,8 +3324,12 @@
       <c r="E14" s="52"/>
       <c r="F14" s="53"/>
       <c r="G14" s="54"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="H14" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="51" t="s">
+        <v>59</v>
+      </c>
       <c r="J14" s="52"/>
       <c r="K14" s="53"/>
       <c r="L14" s="54"/>
@@ -3136,9 +3343,22 @@
       <c r="T14" s="52"/>
       <c r="U14" s="53"/>
       <c r="V14" s="54"/>
-      <c r="W14" s="54"/>
-    </row>
-    <row r="15" spans="2:23" ht="30" customHeight="1">
+      <c r="W14" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="X14" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="50"/>
+    </row>
+    <row r="15" spans="2:32" ht="30" customHeight="1">
       <c r="B15" s="34" t="s">
         <v>1</v>
       </c>
@@ -3163,8 +3383,17 @@
       <c r="U15" s="47"/>
       <c r="V15" s="47"/>
       <c r="W15" s="47"/>
-    </row>
-    <row r="16" spans="2:23" ht="23">
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+    </row>
+    <row r="16" spans="2:32" ht="23">
       <c r="B16" s="35" t="s">
         <v>2</v>
       </c>
@@ -3189,8 +3418,17 @@
       <c r="U16" s="53"/>
       <c r="V16" s="54"/>
       <c r="W16" s="54"/>
-    </row>
-    <row r="17" spans="2:23" ht="72">
+      <c r="X16" s="54"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="50"/>
+    </row>
+    <row r="17" spans="2:32" ht="72">
       <c r="B17" s="36" t="s">
         <v>4</v>
       </c>
@@ -3218,8 +3456,17 @@
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
       <c r="W17" s="54"/>
-    </row>
-    <row r="18" spans="2:23" ht="23">
+      <c r="X17" s="54"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="50"/>
+    </row>
+    <row r="18" spans="2:32" ht="23">
       <c r="B18" s="36" t="s">
         <v>5</v>
       </c>
@@ -3243,8 +3490,17 @@
       <c r="U18" s="53"/>
       <c r="V18" s="54"/>
       <c r="W18" s="54"/>
-    </row>
-    <row r="19" spans="2:23" ht="30" customHeight="1">
+      <c r="X18" s="54"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="50"/>
+    </row>
+    <row r="19" spans="2:32" ht="30" customHeight="1">
       <c r="B19" s="34" t="s">
         <v>10</v>
       </c>
@@ -3269,8 +3525,17 @@
       <c r="U19" s="45"/>
       <c r="V19" s="46"/>
       <c r="W19" s="46"/>
-    </row>
-    <row r="20" spans="2:23" ht="23">
+      <c r="X19" s="46"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="42"/>
+    </row>
+    <row r="20" spans="2:32" ht="23">
       <c r="B20" s="35" t="s">
         <v>11</v>
       </c>
@@ -3295,8 +3560,17 @@
       <c r="U20" s="31"/>
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
-    </row>
-    <row r="21" spans="2:23" ht="23">
+      <c r="X20" s="32"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="28"/>
+    </row>
+    <row r="21" spans="2:32" ht="23">
       <c r="B21" s="36" t="s">
         <v>12</v>
       </c>
@@ -3321,29 +3595,39 @@
       <c r="U21" s="31"/>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
-    </row>
-    <row r="22" spans="2:23" ht="43" customHeight="1">
-      <c r="B22" s="59" t="s">
+      <c r="X21" s="32"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="28"/>
+    </row>
+    <row r="22" spans="2:32" ht="43" customHeight="1">
+      <c r="B22" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="60" t="s">
+      <c r="H22" s="59" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
+  <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date in next cell G5." sqref="C1 F2" xr:uid="{079EE756-7CFB-184B-864B-D1A5256AE2F1}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Student Name in this cell." sqref="E2" xr:uid="{9CBE3C17-6CB8-1148-8EE1-C88910709669}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date (i.e., Monday Date) in this cell. Dates in Grid below will be auto-calculated." sqref="E1:G1" xr:uid="{D3497D02-33AB-0246-BE0E-C30BF912AE87}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter / Update Subject name in this cell." sqref="C11:W11 N6:W6 D6:L6 C19:W19" xr:uid="{9879859C-CAEA-CC48-8AAB-892B2093C47B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter / Update Subject name in this cell." sqref="C11:AF11 N6:AF6 D6:L6 C19:AF19" xr:uid="{9879859C-CAEA-CC48-8AAB-892B2093C47B}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the date for the start of the week in this cell." sqref="G2" xr:uid="{D0455A30-A624-8C42-B1CF-62FCF5E2BEF5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Subject name in this cell." sqref="B11 B19 B6 B15:W15" xr:uid="{A02C6994-0A87-7349-8F31-B29D72DD46DB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Subject name in this cell." sqref="B11 B19 B6 B15:AF15" xr:uid="{A02C6994-0A87-7349-8F31-B29D72DD46DB}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Homework Log" prompt="Help your students get more organized with this ready-to-print homework log to track their assignments. _x000a__x000a_" sqref="A1" xr:uid="{CCB9C9A5-6426-B141-9BB8-E87C34F60FE5}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Homework Date header, these dates are calculated on basis of your input in cell D4." sqref="C4:W4" xr:uid="{D46DC5BF-02F4-364E-8C76-37055CB6BA0F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Homework Date header, these dates are calculated on basis of your input in cell D4." sqref="C4:AF4" xr:uid="{D46DC5BF-02F4-364E-8C76-37055CB6BA0F}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/PTE 8炸计划.xlsx
+++ b/PTE 8炸计划.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08B6E44-D4E7-A64D-BACF-AE77375C2754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A865EC-9CAA-6C49-BDFD-74EA4B475E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="700" windowWidth="25600" windowHeight="13480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prepare FEB 1" sheetId="13" r:id="rId1"/>
     <sheet name="Prepare March" sheetId="18" r:id="rId2"/>
     <sheet name="Prepare April" sheetId="19" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="17" r:id="rId4"/>
+    <sheet name="Prepare May" sheetId="20" r:id="rId4"/>
+    <sheet name="Prepare June " sheetId="21" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="17" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="WeekStart" localSheetId="2">'Prepare April'!$G$2</definedName>
     <definedName name="WeekStart" localSheetId="0">'Prepare FEB 1'!$G$2</definedName>
+    <definedName name="WeekStart" localSheetId="4">'Prepare June '!$G$2</definedName>
     <definedName name="WeekStart" localSheetId="1">'Prepare March'!$G$2</definedName>
+    <definedName name="WeekStart" localSheetId="3">'Prepare May'!$G$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="87">
   <si>
     <t>Week of:</t>
   </si>
@@ -243,6 +247,63 @@
   </si>
   <si>
     <t>Y(萤火虫）</t>
+  </si>
+  <si>
+    <t>Y 橙+紫</t>
+  </si>
+  <si>
+    <t>Y(未橙紫红）</t>
+  </si>
+  <si>
+    <t>Y手机截屏单词全整理</t>
+  </si>
+  <si>
+    <t>Y(未紫）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Y(红+紫 from 已练）</t>
+  </si>
+  <si>
+    <t>Y (听一遍）</t>
+  </si>
+  <si>
+    <t>Y（过一遍）</t>
+  </si>
+  <si>
+    <t>Y(未+红+紫）</t>
+  </si>
+  <si>
+    <t>Y(未+红+紫+绿）</t>
+  </si>
+  <si>
+    <t>Y (绿）</t>
+  </si>
+  <si>
+    <t>Y(绿)</t>
+  </si>
+  <si>
+    <t>Y(绿）</t>
+  </si>
+  <si>
+    <t>Y(绿-完可以不用再看了，以后复习可以先过一遍绿题，确定之后，就无需再看）</t>
+  </si>
+  <si>
+    <t>Y(全-猩际）</t>
+  </si>
+  <si>
+    <t>Y(1~100可以）</t>
+  </si>
+  <si>
+    <t>Y(绿--基本可以不再复习）</t>
+  </si>
+  <si>
+    <t>Y(全-萤火虫）</t>
+  </si>
+  <si>
+    <t>100~end</t>
   </si>
 </sst>
 </file>
@@ -776,7 +837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -982,6 +1043,10 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,83 +1363,83 @@
       <c r="B4" s="15"/>
       <c r="C4" s="16" t="str">
         <f>TEXT(C5,"ddd")</f>
-        <v>Sun</v>
+        <v>Fri</v>
       </c>
       <c r="D4" s="17" t="str">
         <f t="shared" ref="D4:L4" si="0">TEXT(D5,"ddd")</f>
+        <v>Sat</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="F4" s="19" t="str">
+        <f t="shared" si="0"/>
         <v>Mon</v>
       </c>
-      <c r="E4" s="18" t="str">
+      <c r="G4" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Tue</v>
       </c>
-      <c r="F4" s="19" t="str">
+      <c r="H4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Wed</v>
       </c>
-      <c r="G4" s="20" t="str">
+      <c r="I4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="J4" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Fri</v>
       </c>
-      <c r="H4" s="16" t="str">
+      <c r="K4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Sat</v>
       </c>
-      <c r="I4" s="17" t="str">
+      <c r="L4" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Sun</v>
-      </c>
-      <c r="J4" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>Mon</v>
-      </c>
-      <c r="K4" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>Wed</v>
-      </c>
-      <c r="L4" s="20" t="str">
-        <f t="shared" si="0"/>
-        <v>Thu</v>
       </c>
       <c r="M4" s="16" t="str">
         <f>TEXT(M5,"ddd")</f>
-        <v>Fri</v>
+        <v>Mon</v>
       </c>
       <c r="N4" s="17" t="str">
         <f t="shared" ref="N4" si="1">TEXT(N5,"ddd")</f>
-        <v>Sat</v>
+        <v>Tue</v>
       </c>
       <c r="O4" s="18" t="str">
         <f t="shared" ref="O4" si="2">TEXT(O5,"ddd")</f>
-        <v>Mon</v>
+        <v>Wed</v>
       </c>
       <c r="P4" s="19" t="str">
         <f t="shared" ref="P4" si="3">TEXT(P5,"ddd")</f>
-        <v>Tue</v>
+        <v>Thu</v>
       </c>
       <c r="Q4" s="20" t="str">
         <f t="shared" ref="Q4" si="4">TEXT(Q5,"ddd")</f>
-        <v>Wed</v>
+        <v>Fri</v>
       </c>
       <c r="R4" s="16" t="str">
         <f t="shared" ref="R4" si="5">TEXT(R5,"ddd")</f>
-        <v>Thu</v>
+        <v>Sat</v>
       </c>
       <c r="S4" s="17" t="str">
         <f t="shared" ref="S4" si="6">TEXT(S5,"ddd")</f>
-        <v>Sat</v>
+        <v>Sun</v>
       </c>
       <c r="T4" s="18" t="str">
         <f t="shared" ref="T4" si="7">TEXT(T5,"ddd")</f>
-        <v>Sun</v>
+        <v>Mon</v>
       </c>
       <c r="U4" s="19" t="str">
         <f t="shared" ref="U4" si="8">TEXT(U5,"ddd")</f>
-        <v>Mon</v>
+        <v>Tue</v>
       </c>
       <c r="V4" s="20" t="str">
         <f t="shared" ref="V4" si="9">TEXT(V5,"ddd")</f>
-        <v>Tue</v>
+        <v>Wed</v>
       </c>
     </row>
     <row r="5" spans="2:22" s="27" customFormat="1" ht="30" customHeight="1">
@@ -1485,7 +1550,7 @@
       <c r="U6" s="39"/>
       <c r="V6" s="40"/>
     </row>
-    <row r="7" spans="2:22" ht="23">
+    <row r="7" spans="2:22" ht="29">
       <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
@@ -1510,7 +1575,7 @@
       <c r="U7" s="53"/>
       <c r="V7" s="54"/>
     </row>
-    <row r="8" spans="2:22" ht="23">
+    <row r="8" spans="2:22" ht="29">
       <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
@@ -1535,7 +1600,7 @@
       <c r="U8" s="53"/>
       <c r="V8" s="54"/>
     </row>
-    <row r="9" spans="2:22" ht="23">
+    <row r="9" spans="2:22" ht="29">
       <c r="B9" s="36" t="s">
         <v>16</v>
       </c>
@@ -1560,7 +1625,7 @@
       <c r="U9" s="53"/>
       <c r="V9" s="54"/>
     </row>
-    <row r="10" spans="2:22" ht="23">
+    <row r="10" spans="2:22" ht="29">
       <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
@@ -1610,7 +1675,7 @@
       <c r="U11" s="45"/>
       <c r="V11" s="46"/>
     </row>
-    <row r="12" spans="2:22" ht="48">
+    <row r="12" spans="2:22" ht="60">
       <c r="B12" s="35" t="s">
         <v>7</v>
       </c>
@@ -1655,7 +1720,7 @@
       <c r="U12" s="53"/>
       <c r="V12" s="54"/>
     </row>
-    <row r="13" spans="2:22" ht="24">
+    <row r="13" spans="2:22" ht="30">
       <c r="B13" s="36" t="s">
         <v>8</v>
       </c>
@@ -1682,7 +1747,7 @@
       <c r="U13" s="53"/>
       <c r="V13" s="54"/>
     </row>
-    <row r="14" spans="2:22" ht="96">
+    <row r="14" spans="2:22" ht="120">
       <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
@@ -1738,7 +1803,7 @@
       <c r="U15" s="47"/>
       <c r="V15" s="47"/>
     </row>
-    <row r="16" spans="2:22" ht="24">
+    <row r="16" spans="2:22" ht="30">
       <c r="B16" s="35" t="s">
         <v>2</v>
       </c>
@@ -1765,7 +1830,7 @@
       <c r="U16" s="53"/>
       <c r="V16" s="54"/>
     </row>
-    <row r="17" spans="2:22" ht="24">
+    <row r="17" spans="2:22" ht="30">
       <c r="B17" s="36" t="s">
         <v>4</v>
       </c>
@@ -1791,7 +1856,7 @@
       <c r="U17" s="53"/>
       <c r="V17" s="54"/>
     </row>
-    <row r="18" spans="2:22" ht="48">
+    <row r="18" spans="2:22" ht="60">
       <c r="B18" s="36" t="s">
         <v>5</v>
       </c>
@@ -1850,7 +1915,7 @@
       <c r="U19" s="45"/>
       <c r="V19" s="46"/>
     </row>
-    <row r="20" spans="2:22" ht="23">
+    <row r="20" spans="2:22" ht="29">
       <c r="B20" s="35" t="s">
         <v>11</v>
       </c>
@@ -1875,7 +1940,7 @@
       <c r="U20" s="31"/>
       <c r="V20" s="32"/>
     </row>
-    <row r="21" spans="2:22" ht="23">
+    <row r="21" spans="2:22" ht="29">
       <c r="B21" s="36" t="s">
         <v>12</v>
       </c>
@@ -1929,7 +1994,7 @@
   <dimension ref="B1:W21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="F12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
@@ -2211,7 +2276,7 @@
       <c r="V6" s="40"/>
       <c r="W6" s="40"/>
     </row>
-    <row r="7" spans="2:23" ht="23">
+    <row r="7" spans="2:23" ht="29">
       <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
@@ -2237,7 +2302,7 @@
       <c r="V7" s="54"/>
       <c r="W7" s="54"/>
     </row>
-    <row r="8" spans="2:23" ht="24">
+    <row r="8" spans="2:23" ht="30">
       <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
@@ -2267,7 +2332,7 @@
       <c r="V8" s="54"/>
       <c r="W8" s="54"/>
     </row>
-    <row r="9" spans="2:23" ht="23">
+    <row r="9" spans="2:23" ht="29">
       <c r="B9" s="36" t="s">
         <v>16</v>
       </c>
@@ -2293,7 +2358,7 @@
       <c r="V9" s="54"/>
       <c r="W9" s="54"/>
     </row>
-    <row r="10" spans="2:23" ht="24">
+    <row r="10" spans="2:23" ht="30">
       <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
@@ -2357,7 +2422,7 @@
       <c r="V11" s="46"/>
       <c r="W11" s="46"/>
     </row>
-    <row r="12" spans="2:23" ht="24">
+    <row r="12" spans="2:23" ht="30">
       <c r="B12" s="35" t="s">
         <v>7</v>
       </c>
@@ -2386,7 +2451,7 @@
       <c r="V12" s="54"/>
       <c r="W12" s="54"/>
     </row>
-    <row r="13" spans="2:23" ht="72">
+    <row r="13" spans="2:23" ht="90">
       <c r="B13" s="36" t="s">
         <v>8</v>
       </c>
@@ -2416,7 +2481,7 @@
       <c r="V13" s="54"/>
       <c r="W13" s="54"/>
     </row>
-    <row r="14" spans="2:23" ht="24">
+    <row r="14" spans="2:23" ht="30">
       <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
@@ -2470,7 +2535,7 @@
       <c r="V15" s="47"/>
       <c r="W15" s="47"/>
     </row>
-    <row r="16" spans="2:23" ht="48">
+    <row r="16" spans="2:23" ht="60">
       <c r="B16" s="35" t="s">
         <v>2</v>
       </c>
@@ -2510,7 +2575,7 @@
       <c r="V16" s="54"/>
       <c r="W16" s="54"/>
     </row>
-    <row r="17" spans="2:23" ht="48">
+    <row r="17" spans="2:23" ht="30">
       <c r="B17" s="36" t="s">
         <v>4</v>
       </c>
@@ -2541,7 +2606,7 @@
       <c r="V17" s="54"/>
       <c r="W17" s="54"/>
     </row>
-    <row r="18" spans="2:23" ht="120">
+    <row r="18" spans="2:23" ht="150">
       <c r="B18" s="36" t="s">
         <v>5</v>
       </c>
@@ -2600,7 +2665,7 @@
       <c r="V19" s="46"/>
       <c r="W19" s="46"/>
     </row>
-    <row r="20" spans="2:23" ht="23">
+    <row r="20" spans="2:23" ht="29">
       <c r="B20" s="35" t="s">
         <v>11</v>
       </c>
@@ -2626,7 +2691,7 @@
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
     </row>
-    <row r="21" spans="2:23" ht="23">
+    <row r="21" spans="2:23" ht="29">
       <c r="B21" s="36" t="s">
         <v>12</v>
       </c>
@@ -2680,11 +2745,11 @@
   </sheetPr>
   <dimension ref="B1:AF22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1"/>
@@ -3045,7 +3110,7 @@
       <c r="AE6" s="40"/>
       <c r="AF6" s="41"/>
     </row>
-    <row r="7" spans="2:32" ht="23">
+    <row r="7" spans="2:32" ht="29">
       <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
@@ -3080,7 +3145,7 @@
       <c r="AE7" s="54"/>
       <c r="AF7" s="50"/>
     </row>
-    <row r="8" spans="2:32" ht="24">
+    <row r="8" spans="2:32" ht="30">
       <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
@@ -3123,7 +3188,7 @@
       <c r="AE8" s="54"/>
       <c r="AF8" s="50"/>
     </row>
-    <row r="9" spans="2:32" ht="48">
+    <row r="9" spans="2:32" ht="60">
       <c r="B9" s="36" t="s">
         <v>16</v>
       </c>
@@ -3160,7 +3225,7 @@
       <c r="AE9" s="54"/>
       <c r="AF9" s="50"/>
     </row>
-    <row r="10" spans="2:32" ht="24">
+    <row r="10" spans="2:32" ht="30">
       <c r="B10" s="36" t="s">
         <v>17</v>
       </c>
@@ -3234,7 +3299,7 @@
       <c r="AE11" s="46"/>
       <c r="AF11" s="42"/>
     </row>
-    <row r="12" spans="2:32" ht="24">
+    <row r="12" spans="2:32" ht="30">
       <c r="B12" s="35" t="s">
         <v>7</v>
       </c>
@@ -3280,7 +3345,7 @@
       <c r="AE12" s="54"/>
       <c r="AF12" s="50"/>
     </row>
-    <row r="13" spans="2:32" ht="23">
+    <row r="13" spans="2:32" ht="29">
       <c r="B13" s="36" t="s">
         <v>8</v>
       </c>
@@ -3315,7 +3380,7 @@
       <c r="AE13" s="54"/>
       <c r="AF13" s="50"/>
     </row>
-    <row r="14" spans="2:32" ht="48">
+    <row r="14" spans="2:32" ht="60">
       <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
@@ -3393,7 +3458,7 @@
       <c r="AE15" s="47"/>
       <c r="AF15" s="47"/>
     </row>
-    <row r="16" spans="2:32" ht="23">
+    <row r="16" spans="2:32" ht="29">
       <c r="B16" s="35" t="s">
         <v>2</v>
       </c>
@@ -3428,7 +3493,7 @@
       <c r="AE16" s="54"/>
       <c r="AF16" s="50"/>
     </row>
-    <row r="17" spans="2:32" ht="72">
+    <row r="17" spans="2:32" ht="90">
       <c r="B17" s="36" t="s">
         <v>4</v>
       </c>
@@ -3466,7 +3531,7 @@
       <c r="AE17" s="54"/>
       <c r="AF17" s="50"/>
     </row>
-    <row r="18" spans="2:32" ht="23">
+    <row r="18" spans="2:32" ht="29">
       <c r="B18" s="36" t="s">
         <v>5</v>
       </c>
@@ -3535,7 +3600,7 @@
       <c r="AE19" s="46"/>
       <c r="AF19" s="42"/>
     </row>
-    <row r="20" spans="2:32" ht="23">
+    <row r="20" spans="2:32" ht="29">
       <c r="B20" s="35" t="s">
         <v>11</v>
       </c>
@@ -3570,7 +3635,7 @@
       <c r="AE20" s="32"/>
       <c r="AF20" s="28"/>
     </row>
-    <row r="21" spans="2:32" ht="23">
+    <row r="21" spans="2:32" ht="29">
       <c r="B21" s="36" t="s">
         <v>12</v>
       </c>
@@ -3614,7 +3679,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:C2"/>
   </mergeCells>
@@ -3636,6 +3701,1970 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C95741-C3A5-C645-8CD8-6AFBCBCDFED1}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AG22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="U15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="AG16" sqref="AG16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="33" customWidth="1"/>
+    <col min="3" max="7" width="17.83203125" style="4" customWidth="1"/>
+    <col min="8" max="15" width="17.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" style="3" customWidth="1"/>
+    <col min="20" max="23" width="17.83203125" style="3" customWidth="1"/>
+    <col min="24" max="26" width="16.1640625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="18.6640625" style="3" customWidth="1"/>
+    <col min="29" max="31" width="16.1640625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="24.5" style="3" customWidth="1"/>
+    <col min="33" max="33" width="16.1640625" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:33" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:33" ht="72" customHeight="1">
+      <c r="B2" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45413</v>
+      </c>
+      <c r="H2" s="8" t="str">
+        <f>TEXT(WeekStart,"ddd")</f>
+        <v>Wed</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>TEXT(C5,"yyyy mmm dd")</f>
+        <v>2024 May 01</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="2:33" ht="30" customHeight="1">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" spans="2:33" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="str">
+        <f>TEXT(C5,"ddd")</f>
+        <v>Wed</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <f t="shared" ref="D4:AG4" si="0">TEXT(D5,"ddd")</f>
+        <v>Thu</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="F4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="G4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="I4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="J4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="K4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="L4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="M4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="N4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="O4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="P4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="Q4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="R4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="S4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="T4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="U4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="V4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="W4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="X4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="Y4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="Z4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="AA4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="AB4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="AC4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="AD4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="AE4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="AF4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="AG4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>01 May</v>
+      </c>
+      <c r="D5" s="23" t="str">
+        <f t="shared" ref="D5:I5" si="1">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <v>02 May</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>03 May</v>
+      </c>
+      <c r="F5" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>04 May</v>
+      </c>
+      <c r="G5" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>05 May</v>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>06 May</v>
+      </c>
+      <c r="I5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>07 May</v>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>08 May</v>
+      </c>
+      <c r="K5" s="23" t="str">
+        <f t="shared" ref="K5:P5" si="2">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <v>09 May</v>
+      </c>
+      <c r="L5" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>10 May</v>
+      </c>
+      <c r="M5" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>11 May</v>
+      </c>
+      <c r="N5" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>12 May</v>
+      </c>
+      <c r="O5" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>13 May</v>
+      </c>
+      <c r="P5" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>14 May</v>
+      </c>
+      <c r="Q5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>15 May</v>
+      </c>
+      <c r="R5" s="23" t="str">
+        <f t="shared" ref="R5:AG5" si="3">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <v>16 May</v>
+      </c>
+      <c r="S5" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>17 May</v>
+      </c>
+      <c r="T5" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>18 May</v>
+      </c>
+      <c r="U5" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>19 May</v>
+      </c>
+      <c r="V5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>20 May</v>
+      </c>
+      <c r="W5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>21 May</v>
+      </c>
+      <c r="X5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>22 May</v>
+      </c>
+      <c r="Y5" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>23 May</v>
+      </c>
+      <c r="Z5" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>24 May</v>
+      </c>
+      <c r="AA5" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>25 May</v>
+      </c>
+      <c r="AB5" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>26 May</v>
+      </c>
+      <c r="AC5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>27 May</v>
+      </c>
+      <c r="AD5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>28 May</v>
+      </c>
+      <c r="AE5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>29 May</v>
+      </c>
+      <c r="AF5" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>30 May</v>
+      </c>
+      <c r="AG5" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>31 May</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" ht="30" customHeight="1">
+      <c r="B6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+    </row>
+    <row r="7" spans="2:33" ht="29">
+      <c r="B7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+    </row>
+    <row r="8" spans="2:33" ht="60">
+      <c r="B8" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG8" s="50"/>
+    </row>
+    <row r="9" spans="2:33" ht="29">
+      <c r="B9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+    </row>
+    <row r="10" spans="2:33" ht="60">
+      <c r="B10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA10" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB10" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+    </row>
+    <row r="11" spans="2:33" ht="30" customHeight="1">
+      <c r="B11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+    </row>
+    <row r="12" spans="2:33" ht="29">
+      <c r="B12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+    </row>
+    <row r="13" spans="2:33" ht="29">
+      <c r="B13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+    </row>
+    <row r="14" spans="2:33" ht="60">
+      <c r="B14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB14" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG14" s="50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:33" ht="30" customHeight="1">
+      <c r="B15" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+    </row>
+    <row r="16" spans="2:33" ht="120">
+      <c r="B16" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" ht="300">
+      <c r="B17" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="U17" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="V17" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="W17" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE17" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+    </row>
+    <row r="18" spans="2:33" ht="30">
+      <c r="B18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+    </row>
+    <row r="19" spans="2:33" ht="30" customHeight="1">
+      <c r="B19" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+    </row>
+    <row r="20" spans="2:33" ht="29">
+      <c r="B20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+    </row>
+    <row r="21" spans="2:33" ht="60">
+      <c r="B21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+    </row>
+    <row r="22" spans="2:33" ht="61" customHeight="1">
+      <c r="B22" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="59"/>
+      <c r="S22" s="62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Homework Date header, these dates are calculated on basis of your input in cell D4." sqref="C4:AG4" xr:uid="{60DEAC18-8F63-BB45-A516-4B8ECEAEC275}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Homework Log" prompt="Help your students get more organized with this ready-to-print homework log to track their assignments. _x000a__x000a_" sqref="A1" xr:uid="{840F03D3-8E23-2245-851A-074DDF158F1F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Subject name in this cell." sqref="B11 B19 B6 B15:AG15" xr:uid="{258936AF-8ED1-F24D-8DDF-E98DFEA49FC3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the date for the start of the week in this cell." sqref="G2" xr:uid="{D149B9A1-201E-E842-8362-07DCA9011D71}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter / Update Subject name in this cell." sqref="C11:AG11 N6:AG6 D6:L6 C19:AG19" xr:uid="{D6B4F1AE-2052-7F4F-80E0-7765507B28F0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date (i.e., Monday Date) in this cell. Dates in Grid below will be auto-calculated." sqref="E1:G1" xr:uid="{4785FF13-9731-804B-B830-B2B21655824E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Student Name in this cell." sqref="E2" xr:uid="{3C5C3BEB-88A9-154D-98C5-5D25BA917D16}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date in next cell G5." sqref="C1 F2" xr:uid="{25B1488F-8AE5-7447-AD11-3BAA8876DB7F}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="31" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDAF4A0-5D8F-B54D-AB1E-06649E98D69D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AG22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="4" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="33" customWidth="1"/>
+    <col min="3" max="7" width="17.83203125" style="4" customWidth="1"/>
+    <col min="8" max="15" width="17.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.83203125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="21.6640625" style="3" customWidth="1"/>
+    <col min="20" max="23" width="17.83203125" style="3" customWidth="1"/>
+    <col min="24" max="26" width="16.1640625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" style="3" customWidth="1"/>
+    <col min="28" max="28" width="18.6640625" style="3" customWidth="1"/>
+    <col min="29" max="31" width="16.1640625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="24.5" style="3" customWidth="1"/>
+    <col min="33" max="33" width="16.1640625" style="3" customWidth="1"/>
+    <col min="34" max="16384" width="9.1640625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:33" s="2" customFormat="1" ht="24" customHeight="1">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="2:33" ht="72" customHeight="1">
+      <c r="B2" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45444</v>
+      </c>
+      <c r="H2" s="8" t="str">
+        <f>TEXT(WeekStart,"ddd")</f>
+        <v>Sat</v>
+      </c>
+      <c r="I2" s="8" t="str">
+        <f>TEXT(C5,"yyyy mmm dd")</f>
+        <v>2024 Jun 01</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="2:33" ht="30" customHeight="1">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" spans="2:33" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="B4" s="15"/>
+      <c r="C4" s="16" t="str">
+        <f>TEXT(C5,"ddd")</f>
+        <v>Sat</v>
+      </c>
+      <c r="D4" s="17" t="str">
+        <f t="shared" ref="D4:AG4" si="0">TEXT(D5,"ddd")</f>
+        <v>Sun</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="F4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="G4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="I4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="J4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="K4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="L4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="M4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="N4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="O4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="P4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="Q4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="R4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="S4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="T4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="U4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="V4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="W4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="X4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="Y4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="Z4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+      <c r="AA4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Tue</v>
+      </c>
+      <c r="AB4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Wed</v>
+      </c>
+      <c r="AC4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Thu</v>
+      </c>
+      <c r="AD4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Fri</v>
+      </c>
+      <c r="AE4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Sat</v>
+      </c>
+      <c r="AF4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Sun</v>
+      </c>
+      <c r="AG4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Mon</v>
+      </c>
+    </row>
+    <row r="5" spans="2:33" s="27" customFormat="1" ht="30" customHeight="1">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>01 Jun</v>
+      </c>
+      <c r="D5" s="23" t="str">
+        <f t="shared" ref="D5:I5" si="1">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <v>02 Jun</v>
+      </c>
+      <c r="E5" s="24" t="str">
+        <f t="shared" si="1"/>
+        <v>03 Jun</v>
+      </c>
+      <c r="F5" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>04 Jun</v>
+      </c>
+      <c r="G5" s="26" t="str">
+        <f t="shared" si="1"/>
+        <v>05 Jun</v>
+      </c>
+      <c r="H5" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>06 Jun</v>
+      </c>
+      <c r="I5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>07 Jun</v>
+      </c>
+      <c r="J5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>08 Jun</v>
+      </c>
+      <c r="K5" s="23" t="str">
+        <f t="shared" ref="K5:P5" si="2">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <v>09 Jun</v>
+      </c>
+      <c r="L5" s="24" t="str">
+        <f t="shared" si="2"/>
+        <v>10 Jun</v>
+      </c>
+      <c r="M5" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>11 Jun</v>
+      </c>
+      <c r="N5" s="26" t="str">
+        <f t="shared" si="2"/>
+        <v>12 Jun</v>
+      </c>
+      <c r="O5" s="22" t="str">
+        <f t="shared" si="2"/>
+        <v>13 Jun</v>
+      </c>
+      <c r="P5" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>14 Jun</v>
+      </c>
+      <c r="Q5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>15 Jun</v>
+      </c>
+      <c r="R5" s="23" t="str">
+        <f t="shared" ref="R5:AG5" si="3">(TEXT(WeekStart+COLUMN()-3,"dd mmm"))</f>
+        <v>16 Jun</v>
+      </c>
+      <c r="S5" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>17 Jun</v>
+      </c>
+      <c r="T5" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>18 Jun</v>
+      </c>
+      <c r="U5" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>19 Jun</v>
+      </c>
+      <c r="V5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>20 Jun</v>
+      </c>
+      <c r="W5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>21 Jun</v>
+      </c>
+      <c r="X5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>22 Jun</v>
+      </c>
+      <c r="Y5" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>23 Jun</v>
+      </c>
+      <c r="Z5" s="24" t="str">
+        <f t="shared" si="3"/>
+        <v>24 Jun</v>
+      </c>
+      <c r="AA5" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>25 Jun</v>
+      </c>
+      <c r="AB5" s="26" t="str">
+        <f t="shared" si="3"/>
+        <v>26 Jun</v>
+      </c>
+      <c r="AC5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>27 Jun</v>
+      </c>
+      <c r="AD5" s="22" t="str">
+        <f t="shared" si="3"/>
+        <v>28 Jun</v>
+      </c>
+      <c r="AE5" s="22" t="str">
+        <f>TEXT(WeekStart+COLUMN()-3,"dd mmm")</f>
+        <v>29 Jun</v>
+      </c>
+      <c r="AF5" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>30 Jun</v>
+      </c>
+      <c r="AG5" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>01 Jul</v>
+      </c>
+    </row>
+    <row r="6" spans="2:33" ht="30" customHeight="1">
+      <c r="B6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+    </row>
+    <row r="7" spans="2:33" ht="29">
+      <c r="B7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+    </row>
+    <row r="8" spans="2:33" ht="30">
+      <c r="B8" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="50"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+    </row>
+    <row r="9" spans="2:33" ht="29">
+      <c r="B9" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+    </row>
+    <row r="10" spans="2:33" ht="29">
+      <c r="B10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+    </row>
+    <row r="11" spans="2:33" ht="30" customHeight="1">
+      <c r="B11" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="44"/>
+      <c r="U11" s="45"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="44"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+    </row>
+    <row r="12" spans="2:33" ht="29">
+      <c r="B12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="50"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50"/>
+    </row>
+    <row r="13" spans="2:33" ht="29">
+      <c r="B13" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="50"/>
+      <c r="AG13" s="50"/>
+    </row>
+    <row r="14" spans="2:33" ht="29">
+      <c r="B14" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="50"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="50"/>
+      <c r="AG14" s="50"/>
+    </row>
+    <row r="15" spans="2:33" ht="30" customHeight="1">
+      <c r="B15" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
+      <c r="X15" s="47"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
+      <c r="AB15" s="47"/>
+      <c r="AC15" s="47"/>
+      <c r="AD15" s="47"/>
+      <c r="AE15" s="47"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="47"/>
+    </row>
+    <row r="16" spans="2:33" ht="29">
+      <c r="B16" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="51"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+    </row>
+    <row r="17" spans="2:33" ht="29">
+      <c r="B17" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="54"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="50"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+    </row>
+    <row r="18" spans="2:33" ht="29">
+      <c r="B18" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="53"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+    </row>
+    <row r="19" spans="2:33" ht="30" customHeight="1">
+      <c r="B19" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="46"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+    </row>
+    <row r="20" spans="2:33" ht="29">
+      <c r="B20" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="31"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="30"/>
+      <c r="AB20" s="31"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+    </row>
+    <row r="21" spans="2:33" ht="29">
+      <c r="B21" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="31"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="30"/>
+      <c r="AB21" s="31"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="28"/>
+    </row>
+    <row r="22" spans="2:33" ht="61" customHeight="1">
+      <c r="B22" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="59"/>
+      <c r="S22" s="62" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date in next cell G5." sqref="C1 F2" xr:uid="{7CAB6BFD-8E6C-354B-85ED-2E3DFD7A5294}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Student Name in this cell." sqref="E2" xr:uid="{0BBE25A1-2607-3A42-94FD-CE40FB757880}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Week Date (i.e., Monday Date) in this cell. Dates in Grid below will be auto-calculated." sqref="E1:G1" xr:uid="{CEB4A732-09AF-0240-A347-F2118952BB09}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter / Update Subject name in this cell." sqref="C11:AG11 N6:AG6 D6:L6 C19:AG19" xr:uid="{BB1C8889-EFB3-B34E-81A5-9EF5B9E66DB5}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the date for the start of the week in this cell." sqref="G2" xr:uid="{E803EA78-E5B1-8949-812C-EEB719410534}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Subject name in this cell." sqref="B11 B19 B6 B15:AG15" xr:uid="{1B71EB8C-EA6C-3641-A3CA-6E8F4CE3865E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Homework Log" prompt="Help your students get more organized with this ready-to-print homework log to track their assignments. _x000a__x000a_" sqref="A1" xr:uid="{238687D8-9726-5F4A-9CCB-13C8AB97381A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Homework Date header, these dates are calculated on basis of your input in cell D4." sqref="C4:AG4" xr:uid="{C869EC16-2422-2F40-B8AF-2C6DE5754D1D}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="31" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE44A33-10E9-7642-B24E-BC25BF880B2C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
